--- a/teams-and-rosters/CS320-Sp18-101-Roster.xlsx
+++ b/teams-and-rosters/CS320-Sp18-101-Roster.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2018\teams-and-rosters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="405" yWindow="60" windowWidth="15135" windowHeight="12075"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Last Name</t>
   </si>
@@ -137,15 +142,6 @@
   </si>
   <si>
     <t>cteichmann@ycp.edu</t>
-  </si>
-  <si>
-    <t>Wyatt</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>wwyatt@ycp.edu</t>
   </si>
   <si>
     <t>EE</t>
@@ -670,9 +666,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,6 +678,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -737,6 +733,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -784,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,7 +818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1028,256 +1027,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="3" max="3" width="10.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/teams-and-rosters/CS320-Sp18-101-Roster.xlsx
+++ b/teams-and-rosters/CS320-Sp18-101-Roster.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2018\teams-and-rosters\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="405" yWindow="60" windowWidth="15135" windowHeight="12075"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Last Name</t>
   </si>
@@ -154,6 +149,15 @@
   </si>
   <si>
     <t>CS320 Section 101 (9:00 - 9:50)</t>
+  </si>
+  <si>
+    <t>Garrety</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>cgarret3@ycp.edu</t>
   </si>
 </sst>
 </file>
@@ -783,7 +787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,7 +822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,78 +1115,78 @@
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>42</v>
@@ -1191,32 +1195,32 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>41</v>
@@ -1225,40 +1229,57 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1266,6 +1287,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>